--- a/BioactivityModels/HDAC1/models/Regression/OUTPUT/TestSet_EvaluationResults.xlsx
+++ b/BioactivityModels/HDAC1/models/Regression/OUTPUT/TestSet_EvaluationResults.xlsx
@@ -514,40 +514,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.668049067735612</v>
+        <v>0.6812893772913253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6746085189648229</v>
+        <v>0.6904698496123283</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6791875263379634</v>
+        <v>0.6789215210115693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6853683774349895</v>
+        <v>0.6802601332272427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.668520709743057</v>
+        <v>0.674801098114906</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6957036926744538</v>
+        <v>0.6572958053647349</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6427604031741987</v>
+        <v>0.656789412263401</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6414507075174143</v>
+        <v>0.662377627436159</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6805829682105105</v>
+        <v>0.686148287807298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6792255352030532</v>
+        <v>0.6560248405546244</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6715457506996075</v>
+        <v>0.6724377952683589</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01744446542562995</v>
+        <v>0.01310233131500127</v>
       </c>
     </row>
     <row r="3">
@@ -560,40 +560,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D3" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E3" t="n">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="F3" t="n">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="G3" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H3" t="n">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="I3" t="n">
+        <v>408</v>
+      </c>
+      <c r="J3" t="n">
+        <v>416</v>
+      </c>
+      <c r="K3" t="n">
+        <v>412</v>
+      </c>
+      <c r="L3" t="n">
         <v>395</v>
       </c>
-      <c r="J3" t="n">
-        <v>405</v>
-      </c>
-      <c r="K3" t="n">
-        <v>415</v>
-      </c>
-      <c r="L3" t="n">
-        <v>417</v>
-      </c>
       <c r="M3" t="n">
-        <v>406.8</v>
+        <v>402.7</v>
       </c>
       <c r="N3" t="n">
-        <v>7.315128919650774</v>
+        <v>12.71962613007508</v>
       </c>
     </row>
     <row r="4">
@@ -606,40 +606,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D4" t="n">
+        <v>333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>362</v>
+      </c>
+      <c r="F4" t="n">
         <v>345</v>
       </c>
-      <c r="E4" t="n">
-        <v>342</v>
-      </c>
-      <c r="F4" t="n">
-        <v>338</v>
-      </c>
       <c r="G4" t="n">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H4" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I4" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L4" t="n">
         <v>340</v>
       </c>
       <c r="M4" t="n">
-        <v>342.3</v>
+        <v>340.9</v>
       </c>
       <c r="N4" t="n">
-        <v>8.02842173503333</v>
+        <v>9.982762921934766</v>
       </c>
     </row>
     <row r="5">
@@ -652,40 +652,40 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>98</v>
+      </c>
+      <c r="D5" t="n">
         <v>89</v>
       </c>
-      <c r="D5" t="n">
-        <v>79</v>
-      </c>
       <c r="E5" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>84</v>
+      </c>
+      <c r="H5" t="n">
         <v>86</v>
       </c>
-      <c r="F5" t="n">
-        <v>97</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>89</v>
+      </c>
+      <c r="J5" t="n">
         <v>80</v>
       </c>
-      <c r="I5" t="n">
-        <v>86</v>
-      </c>
-      <c r="J5" t="n">
-        <v>94</v>
-      </c>
       <c r="K5" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="L5" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="M5" t="n">
-        <v>83</v>
+        <v>88.3</v>
       </c>
       <c r="N5" t="n">
-        <v>9.273618495495704</v>
+        <v>8.056053624449133</v>
       </c>
     </row>
     <row r="6">
@@ -698,40 +698,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G6" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H6" t="n">
         <v>69</v>
       </c>
       <c r="I6" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L6" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M6" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>6.41958807955083</v>
+        <v>4.771442828607157</v>
       </c>
     </row>
     <row r="7">
@@ -744,40 +744,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8353726362625139</v>
+        <v>0.8109010011123471</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8353726362625139</v>
+        <v>0.8231368186874305</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8375973303670745</v>
+        <v>0.8186874304783093</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8197997775305895</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8476084538375973</v>
+        <v>0.8364849833147943</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8342602892102335</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8186874304783093</v>
+        <v>0.8320355951056729</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8109010011123471</v>
+        <v>0.8331479421579533</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8509454949944383</v>
+        <v>0.8331479421579533</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8420467185761957</v>
+        <v>0.8175750834260289</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8332591768631815</v>
+        <v>0.8271412680756395</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01298744246960165</v>
+        <v>0.00919061676519372</v>
       </c>
     </row>
     <row r="8">
@@ -790,40 +790,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8216432865731463</v>
+        <v>0.8036072144288577</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8371134020618557</v>
+        <v>0.8205645161290323</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8269617706237424</v>
+        <v>0.8060344827586207</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8044354838709677</v>
+        <v>0.8450413223140496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8404907975460123</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8329853862212944</v>
+        <v>0.8200836820083682</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8212058212058212</v>
+        <v>0.8209255533199196</v>
       </c>
       <c r="J8" t="n">
-        <v>0.811623246492986</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8627858627858628</v>
+        <v>0.8223552894211577</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8475609756097561</v>
+        <v>0.7931726907630522</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8306806032991446</v>
+        <v>0.8201480344055371</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01730732323960495</v>
+        <v>0.01594359634453786</v>
       </c>
     </row>
     <row r="9">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8742004264392325</v>
+        <v>0.8477801268498943</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8547368421052631</v>
+        <v>0.8532494758909853</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8726114649681529</v>
+        <v>0.8366890380313199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8599137931034483</v>
+        <v>0.8538622129436325</v>
       </c>
       <c r="G9" t="n">
-        <v>0.874468085106383</v>
+        <v>0.8676470588235294</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8525641025641025</v>
+        <v>0.8503253796095445</v>
       </c>
       <c r="I9" t="n">
-        <v>0.836864406779661</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="J9" t="n">
-        <v>0.841995841995842</v>
+        <v>0.8559670781893004</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8592132505175983</v>
+        <v>0.8710359408033826</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8615702479338843</v>
+        <v>0.8662280701754386</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8588138461513568</v>
+        <v>0.8570869487700007</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01291617376507614</v>
+        <v>0.01098180119890685</v>
       </c>
     </row>
     <row r="10">
@@ -882,40 +882,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.793</v>
+        <v>0.77</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8137</v>
+        <v>0.7891</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7991</v>
+        <v>0.8008999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.777</v>
+        <v>0.8214</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8182</v>
+        <v>0.8014</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8144</v>
+        <v>0.8037</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7986</v>
+        <v>0.7925</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7751</v>
+        <v>0.8063</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8413</v>
+        <v>0.7911</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8193</v>
+        <v>0.7675</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8049700000000002</v>
+        <v>0.7943900000000002</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02043483137521163</v>
+        <v>0.01636360799660841</v>
       </c>
     </row>
     <row r="11">
@@ -928,40 +928,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8471074380165289</v>
+        <v>0.8251028806584362</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8458333333333333</v>
+        <v>0.8365878725590955</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8491735537190083</v>
+        <v>0.8210757409440175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.83125</v>
+        <v>0.8494288681204568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8489208633093526</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8426610348468848</v>
+        <v>0.8349307774227901</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8289611752360965</v>
+        <v>0.843846949327818</v>
       </c>
       <c r="J11" t="n">
-        <v>0.826530612244898</v>
+        <v>0.8472505091649695</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8609958506224067</v>
+        <v>0.8459958932238193</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8545081967213115</v>
+        <v>0.8280922431865828</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8444164051883327</v>
+        <v>0.838123259791734</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01204512775865872</v>
+        <v>0.01051860523596124</v>
       </c>
     </row>
     <row r="12">
@@ -974,40 +974,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8349484868015254</v>
+        <v>0.8104539685842619</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8352478069418596</v>
+        <v>0.822827036840689</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8372347016837609</v>
+        <v>0.8186416567715257</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8193625375317577</v>
+        <v>0.8386454906486895</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8473925376721624</v>
+        <v>0.8361684336422055</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8341517014287962</v>
+        <v>0.8274408545112827</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8185780059779305</v>
+        <v>0.8316518326941231</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8105570732390146</v>
+        <v>0.8329751165818868</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8509695965666876</v>
+        <v>0.8327113612964919</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8419254389835426</v>
+        <v>0.817051717655954</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8330367886827037</v>
+        <v>0.8268567469227109</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01306168729754963</v>
+        <v>0.009247480016262386</v>
       </c>
     </row>
     <row r="13">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8343970925022404</v>
+        <v>0.8096458713219542</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8346111774065235</v>
+        <v>0.8219302999159114</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8366349696305885</v>
+        <v>0.818655119626462</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8189662887828162</v>
+        <v>0.8378880867548393</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8469266133151712</v>
+        <v>0.8353695225637672</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8337864516185072</v>
+        <v>0.827244201284154</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8180308834760364</v>
+        <v>0.8310690823654734</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8093533256823513</v>
+        <v>0.8317134898766023</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8501621938963353</v>
+        <v>0.8319785291361815</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8408794024969088</v>
+        <v>0.816889723489026</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8323748398807478</v>
+        <v>0.8262383926334372</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01310314706263724</v>
+        <v>0.009099090606287765</v>
       </c>
     </row>
     <row r="14">
@@ -1066,40 +1066,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8336118411265929</v>
+        <v>0.8088665892465434</v>
       </c>
       <c r="D14" t="n">
-        <v>0.834208043694141</v>
+        <v>0.821174500978668</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8358384427644503</v>
+        <v>0.8187869968917662</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8184626436781609</v>
+        <v>0.837645392186102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8463249516441006</v>
+        <v>0.8345327492699208</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8334746266880837</v>
+        <v>0.826989173823037</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8177296272774184</v>
+        <v>0.8303129494618857</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8085577296103612</v>
+        <v>0.8311312388525194</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8502797021818761</v>
+        <v>0.8310578765049776</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8404236781838096</v>
+        <v>0.8168612134172903</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8318911286848995</v>
+        <v>0.8257358680632709</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01321201820868802</v>
+        <v>0.009016041729303466</v>
       </c>
     </row>
     <row r="15">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6706745604491045</v>
+        <v>0.6206632474219479</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6694306414223202</v>
+        <v>0.6446041650866289</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6746857232236327</v>
+        <v>0.6378961109235474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6400276686727431</v>
+        <v>0.675828489869461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6946163395441316</v>
+        <v>0.6716624580473814</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6678238891581547</v>
+        <v>0.6550823395256311</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6362268111654507</v>
+        <v>0.6636543566952124</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6193652518682294</v>
+        <v>0.6636360179570588</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7003328840343709</v>
+        <v>0.6655932234479303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6818937795330432</v>
+        <v>0.6373771697839679</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6655077549071181</v>
+        <v>0.6535997578758767</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02602568105066137</v>
+        <v>0.0177756128341122</v>
       </c>
     </row>
     <row r="16">
@@ -1158,40 +1158,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8525</v>
+        <v>0.82</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8333</v>
+        <v>0.8263</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8507</v>
+        <v>0.8322000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8387</v>
+        <v>0.8313</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8561</v>
+        <v>0.8433</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8357</v>
+        <v>0.8361</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8158</v>
+        <v>0.8458</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8263</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8373</v>
+        <v>0.8467</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8354</v>
+        <v>0.8479</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8365500000000001</v>
+        <v>0.8355900000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01487012291662565</v>
+        <v>0.00991334117910472</v>
       </c>
     </row>
     <row r="17">
@@ -1204,40 +1204,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.833611841126593</v>
+        <v>0.8088665892465434</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8342080436941409</v>
+        <v>0.821174500978668</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8358384427644503</v>
+        <v>0.8187869968917662</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8184626436781609</v>
+        <v>0.8376453921861019</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8463249516441006</v>
+        <v>0.8345327492699207</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8334746266880838</v>
+        <v>0.826989173823037</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8177296272774183</v>
+        <v>0.8303129494618856</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8085577296103612</v>
+        <v>0.8311312388525195</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8502797021818761</v>
+        <v>0.8310578765049778</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8404236781838095</v>
+        <v>0.8168612134172905</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8318911286848995</v>
+        <v>0.8257358680632709</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01321201820868803</v>
+        <v>0.009016041729303434</v>
       </c>
     </row>
   </sheetData>
@@ -1336,40 +1336,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.695789094266515</v>
+        <v>0.6828967346690046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7061508643821196</v>
+        <v>0.7133448798146063</v>
       </c>
       <c r="E2" t="n">
-        <v>0.690541327927657</v>
+        <v>0.6912671151974498</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7275305452294396</v>
+        <v>0.7024689512923641</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6882380496293441</v>
+        <v>0.6894762576882298</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7034518565777119</v>
+        <v>0.6717790468472189</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6404783272111199</v>
+        <v>0.6917023367884114</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6659885340877685</v>
+        <v>0.6815729373543424</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6809789800027082</v>
+        <v>0.697323789640379</v>
       </c>
       <c r="L2" t="n">
-        <v>0.699496754493323</v>
+        <v>0.6771271274896986</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6898644333807706</v>
+        <v>0.6898959176781705</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02377577138375942</v>
+        <v>0.0123735888282786</v>
       </c>
     </row>
     <row r="3">
@@ -1382,40 +1382,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D3" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E3" t="n">
+        <v>365</v>
+      </c>
+      <c r="F3" t="n">
         <v>396</v>
-      </c>
-      <c r="F3" t="n">
-        <v>399</v>
       </c>
       <c r="G3" t="n">
         <v>400</v>
       </c>
       <c r="H3" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I3" t="n">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="J3" t="n">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="K3" t="n">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L3" t="n">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="M3" t="n">
-        <v>395.6</v>
+        <v>393.4</v>
       </c>
       <c r="N3" t="n">
-        <v>7.336363010526552</v>
+        <v>11.72082666784975</v>
       </c>
     </row>
     <row r="4">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D4" t="n">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E4" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F4" t="n">
+        <v>355</v>
+      </c>
+      <c r="G4" t="n">
+        <v>347</v>
+      </c>
+      <c r="H4" t="n">
         <v>359</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>344</v>
+      </c>
+      <c r="J4" t="n">
         <v>340</v>
       </c>
-      <c r="H4" t="n">
-        <v>348</v>
-      </c>
-      <c r="I4" t="n">
-        <v>357</v>
-      </c>
-      <c r="J4" t="n">
-        <v>337</v>
-      </c>
       <c r="K4" t="n">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L4" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M4" t="n">
-        <v>349.4</v>
+        <v>347.7</v>
       </c>
       <c r="N4" t="n">
-        <v>7.058485830702093</v>
+        <v>7.543208866258444</v>
       </c>
     </row>
     <row r="5">
@@ -1474,40 +1474,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
+        <v>81</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92</v>
+      </c>
+      <c r="F5" t="n">
+        <v>65</v>
+      </c>
+      <c r="G5" t="n">
+        <v>76</v>
+      </c>
+      <c r="H5" t="n">
         <v>79</v>
       </c>
-      <c r="E5" t="n">
-        <v>76</v>
-      </c>
-      <c r="F5" t="n">
-        <v>76</v>
-      </c>
-      <c r="G5" t="n">
-        <v>89</v>
-      </c>
-      <c r="H5" t="n">
-        <v>83</v>
-      </c>
       <c r="I5" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J5" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K5" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="L5" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="M5" t="n">
-        <v>75.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="N5" t="n">
-        <v>8.22529972435993</v>
+        <v>9.168181692983378</v>
       </c>
     </row>
     <row r="6">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D6" t="n">
+        <v>78</v>
+      </c>
+      <c r="E6" t="n">
         <v>82</v>
       </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I6" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K6" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L6" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M6" t="n">
-        <v>78.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>8.723531395025756</v>
+        <v>5.680375574437545</v>
       </c>
     </row>
     <row r="7">
@@ -1566,40 +1566,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8375973303670745</v>
+        <v>0.8197997775305895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8209121245828699</v>
+        <v>0.8231368186874305</v>
       </c>
       <c r="E7" t="n">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8353726362625139</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8309232480533927</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8298109010011123</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.8320355951056729</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.8431590656284761</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8231368186874305</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8186874304783093</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8209121245828699</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.8097886540600667</v>
+        <v>0.8253615127919911</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8431590656284761</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8375973303670745</v>
+        <v>0.8131256952169077</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8286985539488321</v>
+        <v>0.8243604004449387</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01153603944093736</v>
+        <v>0.009028378933369127</v>
       </c>
     </row>
     <row r="8">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.837160751565762</v>
+        <v>0.8232848232848233</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8326271186440678</v>
+        <v>0.83125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8389830508474576</v>
+        <v>0.7986870897155361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.84</v>
+        <v>0.8590021691973969</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8179959100204499</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8237791932059448</v>
+        <v>0.8304721030042919</v>
       </c>
       <c r="I8" t="n">
-        <v>0.844789356984479</v>
+        <v>0.8261758691206544</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8283898305084746</v>
+        <v>0.8463157894736842</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8669527896995708</v>
+        <v>0.8298755186721992</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.7987551867219918</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8391789112587318</v>
+        <v>0.828415468364436</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01539795599454088</v>
+        <v>0.01887771830055555</v>
       </c>
     </row>
     <row r="9">
@@ -1658,40 +1658,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8550106609808102</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8273684210526315</v>
+        <v>0.8364779874213837</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8407643312101911</v>
+        <v>0.8165548098434005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8599137931034483</v>
+        <v>0.826722338204593</v>
       </c>
       <c r="G9" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8290598290598291</v>
+        <v>0.8394793926247288</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8072033898305084</v>
+        <v>0.8595744680851064</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8128898128898129</v>
+        <v>0.8271604938271605</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8364389233954451</v>
+        <v>0.8456659619450317</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8326446280991735</v>
+        <v>0.8442982456140351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8352357619409083</v>
+        <v>0.8373479134344801</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01723851875828034</v>
+        <v>0.0119014702963995</v>
       </c>
     </row>
     <row r="10">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8186</v>
+        <v>0.8005</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8137</v>
+        <v>0.8081</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8224</v>
+        <v>0.7965</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8253</v>
+        <v>0.8452</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7925</v>
+        <v>0.8203</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8074</v>
+        <v>0.8196</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8361</v>
+        <v>0.8018999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8062</v>
+        <v>0.8232</v>
       </c>
       <c r="K10" t="n">
-        <v>0.851</v>
+        <v>0.8075</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8434</v>
+        <v>0.781</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8216599999999999</v>
+        <v>0.8103800000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01801593122149887</v>
+        <v>0.01763536850259223</v>
       </c>
     </row>
     <row r="11">
@@ -1750,40 +1750,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8459915611814346</v>
+        <v>0.8301886792452832</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8299894403379092</v>
+        <v>0.8338557993730408</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8398727465535525</v>
+        <v>0.8075221238938053</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8498402555910542</v>
+        <v>0.8425531914893617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8342022940563087</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8264110756123537</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8255687973997833</v>
+        <v>0.8425443169968718</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8205666316894019</v>
+        <v>0.8366285119667014</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8514225500526871</v>
+        <v>0.8376963350785341</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8466386554621849</v>
+        <v>0.8208955223880596</v>
       </c>
       <c r="M11" t="n">
-        <v>0.837050400793667</v>
+        <v>0.8327172071196118</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01117879762742516</v>
+        <v>0.01094776951026705</v>
       </c>
     </row>
     <row r="12">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8374985747104349</v>
+        <v>0.8197013045285546</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8209441245209017</v>
+        <v>0.8230985821332606</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8320264288466697</v>
+        <v>0.806439638507358</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8430735090631811</v>
+        <v>0.835523277281259</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8228862298530936</v>
+        <v>0.8309232480533927</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8186604561646863</v>
+        <v>0.8297813914987612</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8210238847304756</v>
+        <v>0.8317976145145731</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8099034490880714</v>
+        <v>0.8255095856604761</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8433245299809042</v>
+        <v>0.8274782695850005</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8377683246951144</v>
+        <v>0.8128907934652216</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8287109511653533</v>
+        <v>0.8243143705227858</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01153818317712419</v>
+        <v>0.009064004419908154</v>
       </c>
     </row>
     <row r="13">
@@ -1842,40 +1842,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8371134276495409</v>
+        <v>0.8191227756415989</v>
       </c>
       <c r="D13" t="n">
-        <v>0.82040012557436</v>
+        <v>0.822397578640147</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8316322797095248</v>
+        <v>0.8064456257052919</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8428479508455853</v>
+        <v>0.8350295094975946</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8223454855263665</v>
+        <v>0.8303335518604604</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8183277729633364</v>
+        <v>0.8296456477879459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8207843986998916</v>
+        <v>0.8312840774495682</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8090998838920382</v>
+        <v>0.8245269202605312</v>
       </c>
       <c r="K13" t="n">
-        <v>0.842672405768393</v>
+        <v>0.8269145969580096</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8370309116554423</v>
+        <v>0.8127733425893786</v>
       </c>
       <c r="M13" t="n">
-        <v>0.828225464228448</v>
+        <v>0.8238473626390526</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01157392217677114</v>
+        <v>0.008918044043544583</v>
       </c>
     </row>
     <row r="14">
@@ -1888,40 +1888,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8368076560718005</v>
+        <v>0.8188393929468283</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8205238331678252</v>
+        <v>0.8222674297296492</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8315971188761235</v>
+        <v>0.8065074934172755</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8426005747126437</v>
+        <v>0.8359802167213441</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8218023111640134</v>
+        <v>0.8303335518604604</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8182422115136733</v>
+        <v>0.8295570479105379</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8216344818005001</v>
+        <v>0.8307196349749542</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8095549542917964</v>
+        <v>0.825202522942636</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8437002309284918</v>
+        <v>0.8265888495171168</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8380090610375386</v>
+        <v>0.812668310165934</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8284472433564407</v>
+        <v>0.8238664450186736</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01163628198624133</v>
+        <v>0.009016480142227912</v>
       </c>
     </row>
     <row r="15">
@@ -1934,40 +1934,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6744351519993087</v>
+        <v>0.638376160102377</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6408186162063774</v>
+        <v>0.6448136105020793</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6632666262976764</v>
+        <v>0.6130908525850567</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6859492229589501</v>
+        <v>0.670731318756582</v>
       </c>
       <c r="G15" t="n">
-        <v>0.645431818806106</v>
+        <v>0.660667103720921</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6366738360074724</v>
+        <v>0.659342713343708</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6424661593400138</v>
+        <v>0.663317099074479</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6183630021428544</v>
+        <v>0.649302880049724</v>
       </c>
       <c r="K15" t="n">
-        <v>0.685951079292338</v>
+        <v>0.6539961200998695</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6745956025144427</v>
+        <v>0.6269120245924599</v>
       </c>
       <c r="M15" t="n">
-        <v>0.656795111556554</v>
+        <v>0.6480549882827257</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02319369199593573</v>
+        <v>0.01777695889235183</v>
       </c>
     </row>
     <row r="16">
@@ -1980,40 +1980,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8381</v>
+        <v>0.8158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8138</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8244</v>
+        <v>0.8145</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8467</v>
+        <v>0.8105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8293</v>
+        <v>0.8203</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8131</v>
+        <v>0.8290999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7969000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7892</v>
+        <v>0.8018999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8176</v>
+        <v>0.8249</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8121</v>
+        <v>0.8297</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8175399999999999</v>
+        <v>0.8199500000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01772588816141833</v>
+        <v>0.01088406072097073</v>
       </c>
     </row>
     <row r="17">
@@ -2026,40 +2026,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8368076560718004</v>
+        <v>0.8188393929468283</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8205238331678251</v>
+        <v>0.8222674297296492</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8315971188761236</v>
+        <v>0.8065074934172753</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8426005747126436</v>
+        <v>0.835980216721344</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8218023111640134</v>
+        <v>0.8303335518604605</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8182422115136734</v>
+        <v>0.8295570479105379</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8216344818005001</v>
+        <v>0.8307196349749542</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8095549542917965</v>
+        <v>0.825202522942636</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8437002309284918</v>
+        <v>0.8265888495171168</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8380090610375386</v>
+        <v>0.8126683101659341</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8284472433564407</v>
+        <v>0.8238664450186738</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01163628198624128</v>
+        <v>0.009016480142227912</v>
       </c>
     </row>
   </sheetData>
@@ -2158,40 +2158,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6810054673551521</v>
+        <v>0.6963131831851272</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7205514488047147</v>
+        <v>0.701415621222752</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7172030584764599</v>
+        <v>0.7131213354531953</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7210988139874051</v>
+        <v>0.7304744710393452</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7022783753424142</v>
+        <v>0.7123441081900683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.708199213690635</v>
+        <v>0.6921400727246971</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6494520610118795</v>
+        <v>0.6956895217811765</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6828353184289737</v>
+        <v>0.699109851790952</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6973182374076994</v>
+        <v>0.7016710873787388</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7080343980800281</v>
+        <v>0.6748411753354134</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6987976392585362</v>
+        <v>0.7017120428101468</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0223698326355916</v>
+        <v>0.01474387091739453</v>
       </c>
     </row>
     <row r="3">
@@ -2204,40 +2204,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D3" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E3" t="n">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="F3" t="n">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G3" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H3" t="n">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I3" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="J3" t="n">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="K3" t="n">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L3" t="n">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M3" t="n">
-        <v>405.2</v>
+        <v>401.7</v>
       </c>
       <c r="N3" t="n">
-        <v>7.067924416372571</v>
+        <v>14.22087667246057</v>
       </c>
     </row>
     <row r="4">
@@ -2250,40 +2250,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D4" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E4" t="n">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="F4" t="n">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G4" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H4" t="n">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="I4" t="n">
         <v>345</v>
       </c>
       <c r="J4" t="n">
+        <v>339</v>
+      </c>
+      <c r="K4" t="n">
         <v>338</v>
       </c>
-      <c r="K4" t="n">
-        <v>349</v>
-      </c>
       <c r="L4" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M4" t="n">
-        <v>346.7</v>
+        <v>348.1</v>
       </c>
       <c r="N4" t="n">
-        <v>5.478239782184703</v>
+        <v>11.90191394505756</v>
       </c>
     </row>
     <row r="5">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G5" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I5" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="L5" t="n">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="M5" t="n">
-        <v>78.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>4.948624949305502</v>
+        <v>9.49210198006743</v>
       </c>
     </row>
     <row r="6">
@@ -2342,40 +2342,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
+        <v>74</v>
+      </c>
+      <c r="F6" t="n">
+        <v>69</v>
+      </c>
+      <c r="G6" t="n">
+        <v>65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>68</v>
+      </c>
+      <c r="J6" t="n">
+        <v>60</v>
+      </c>
+      <c r="K6" t="n">
         <v>66</v>
       </c>
-      <c r="F6" t="n">
-        <v>59</v>
-      </c>
-      <c r="G6" t="n">
-        <v>64</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J6" t="n">
-        <v>66</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68</v>
-      </c>
       <c r="L6" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="M6" t="n">
-        <v>68.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>6.168918507773916</v>
+        <v>5.321862664727663</v>
       </c>
     </row>
     <row r="7">
@@ -2388,40 +2388,40 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.8353726362625139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8242491657397107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8286985539488321</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.8442714126807565</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.8298109010011123</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8353726362625139</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8431590656284761</v>
-      </c>
       <c r="G7" t="n">
+        <v>0.8398220244716351</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.8387096774193549</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.8298109010011123</v>
-      </c>
       <c r="I7" t="n">
-        <v>0.8231368186874305</v>
+        <v>0.8309232480533927</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8375973303670745</v>
+        <v>0.8509454949944383</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8498331479421579</v>
+        <v>0.8286985539488321</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8320355951056729</v>
+        <v>0.8186874304783093</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8363737486095661</v>
+        <v>0.8340378197997775</v>
       </c>
       <c r="N7" t="n">
-        <v>0.008011816439389363</v>
+        <v>0.009694380923907158</v>
       </c>
     </row>
     <row r="8">
@@ -2434,40 +2434,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8405797101449275</v>
+        <v>0.8406708595387841</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8299180327868853</v>
+        <v>0.8275154004106776</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8316221765913757</v>
+        <v>0.8233995584988962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8316221765913757</v>
+        <v>0.8523908523908524</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8336755646817249</v>
+        <v>0.8387755102040816</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8343949044585988</v>
+        <v>0.8434782608695652</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8280922431865828</v>
+        <v>0.8271604938271605</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.852</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8609958506224067</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7935871743486974</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8375438343601562</v>
+        <v>0.8321200332310937</v>
       </c>
       <c r="N8" t="n">
-        <v>0.009868852657793198</v>
+        <v>0.01750280853016636</v>
       </c>
     </row>
     <row r="9">
@@ -2480,40 +2480,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8656716417910447</v>
+        <v>0.8477801268498943</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8526315789473684</v>
+        <v>0.8448637316561844</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8598726114649682</v>
+        <v>0.8344519015659956</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8728448275862069</v>
+        <v>0.8559498956158664</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8638297872340426</v>
+        <v>0.8634453781512605</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8397435897435898</v>
+        <v>0.841648590021692</v>
       </c>
       <c r="I9" t="n">
-        <v>0.836864406779661</v>
+        <v>0.8553191489361702</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8627858627858628</v>
+        <v>0.8765432098765432</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8592132505175983</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8554366647759434</v>
+        <v>0.8548888151584256</v>
       </c>
       <c r="N9" t="n">
-        <v>0.012366238113958</v>
+        <v>0.01291709458441426</v>
       </c>
     </row>
     <row r="10">
@@ -2526,40 +2526,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8209</v>
+        <v>0.8216</v>
       </c>
       <c r="D10" t="n">
+        <v>0.8008999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8132</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8356</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.8042</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.8084</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.8115</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8112</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.819</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.8080000000000001</v>
-      </c>
       <c r="J10" t="n">
-        <v>0.8086</v>
+        <v>0.8208</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8389</v>
+        <v>0.7934</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8217</v>
+        <v>0.7675</v>
       </c>
       <c r="M10" t="n">
-        <v>0.81524</v>
+        <v>0.8111200000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01023710028388029</v>
+        <v>0.02031013977740621</v>
       </c>
     </row>
     <row r="11">
@@ -2572,40 +2572,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8442105263157895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8411214953271028</v>
+        <v>0.8360995850622406</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8455114822546973</v>
+        <v>0.8288888888888888</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8517350157728707</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8509316770186335</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8370607028753994</v>
+        <v>0.8425624321389794</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8324552160168598</v>
+        <v>0.8410041841004183</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8504098360655737</v>
+        <v>0.8640973630831643</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8601036269430052</v>
+        <v>0.8409090909090908</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8435233160621762</v>
+        <v>0.8293193717277486</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8463346716273122</v>
+        <v>0.8432189785911621</v>
       </c>
       <c r="N11" t="n">
-        <v>0.008151539266950017</v>
+        <v>0.01093483705184664</v>
       </c>
     </row>
     <row r="12">
@@ -2618,40 +2618,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8441279414123667</v>
+        <v>0.8353309481018852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8296348079157976</v>
+        <v>0.8241070743809275</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8351795153864724</v>
+        <v>0.8286972822231746</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8429261885879553</v>
+        <v>0.8442477963227948</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8385120818092319</v>
+        <v>0.8396350832028154</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8297855815533558</v>
+        <v>0.8387140705262188</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8230819400223572</v>
+        <v>0.8307316863232828</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8373791125084626</v>
+        <v>0.8507187386480809</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8498454774487618</v>
+        <v>0.8283749011619336</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8320769674500542</v>
+        <v>0.8181451131903781</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8362549614094815</v>
+        <v>0.8338702694081492</v>
       </c>
       <c r="N12" t="n">
-        <v>0.007995620598112959</v>
+        <v>0.009774133310648449</v>
       </c>
     </row>
     <row r="13">
@@ -2664,40 +2664,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8437282714504242</v>
+        <v>0.8348411122144985</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8289439811964856</v>
+        <v>0.8233255719076191</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8346605030321106</v>
+        <v>0.8286983419945557</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8426325610151248</v>
+        <v>0.8435511137629277</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8380355276907001</v>
+        <v>0.8389273769708552</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8294733083643586</v>
+        <v>0.8386130290683494</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8225880320366985</v>
+        <v>0.8302408093898765</v>
       </c>
       <c r="J13" t="n">
-        <v>0.836397132144709</v>
+        <v>0.8495363662706461</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8490194005063166</v>
+        <v>0.8276834611171959</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8311254035292874</v>
+        <v>0.8179811568010036</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8356604120966213</v>
+        <v>0.8333398339497528</v>
       </c>
       <c r="N13" t="n">
-        <v>0.007987432175637101</v>
+        <v>0.009587001137339544</v>
       </c>
     </row>
     <row r="14">
@@ -2710,40 +2710,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8433009371745921</v>
+        <v>0.8346881854906749</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8284384309831181</v>
+        <v>0.8229057994773814</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8341419132091197</v>
+        <v>0.8287303755617588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.842169540229885</v>
+        <v>0.8434511382841237</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8375092992114268</v>
+        <v>0.8383420744184198</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8293845558926766</v>
+        <v>0.8386325141889281</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8224134680268329</v>
+        <v>0.8297574765659872</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8356991514886252</v>
+        <v>0.8486832272143007</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8490777791049531</v>
+        <v>0.826946173163009</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8312979189485215</v>
+        <v>0.8179577046453606</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8353432994269753</v>
+        <v>0.8330094669009945</v>
       </c>
       <c r="N14" t="n">
-        <v>0.007969026739912424</v>
+        <v>0.009497707095583719</v>
       </c>
     </row>
     <row r="15">
@@ -2756,40 +2756,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6878684701366221</v>
+        <v>0.6697154724947697</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6582378865287023</v>
+        <v>0.6468568286012032</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6698540693539459</v>
+        <v>0.6574705134831229</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6863756563786034</v>
+        <v>0.6871106477074943</v>
       </c>
       <c r="G15" t="n">
-        <v>0.676675145992082</v>
+        <v>0.6782658782079439</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6589651565213495</v>
+        <v>0.6772281356462148</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6452272378803761</v>
+        <v>0.6610115701602272</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6732054702355075</v>
+        <v>0.6994920179450709</v>
       </c>
       <c r="K15" t="n">
-        <v>0.698040922822481</v>
+        <v>0.6563694241189251</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6622694985037793</v>
+        <v>0.6397397919390434</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6716719514353449</v>
+        <v>0.6673260280304014</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0161045296357426</v>
+        <v>0.01851894779338655</v>
       </c>
     </row>
     <row r="16">
@@ -2802,40 +2802,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8486</v>
+        <v>0.8294</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8297</v>
+        <v>0.8204</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8398</v>
+        <v>0.8341</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8568</v>
+        <v>0.8349</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8447</v>
+        <v>0.8411</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8248</v>
+        <v>0.8337</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8175</v>
+        <v>0.8354</v>
       </c>
       <c r="J16" t="n">
+        <v>0.8496</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.8366</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.8369</v>
-      </c>
       <c r="L16" t="n">
-        <v>0.8158</v>
+        <v>0.85</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8351199999999999</v>
+        <v>0.8365199999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01329317285092031</v>
+        <v>0.008831861512601839</v>
       </c>
     </row>
     <row r="17">
@@ -2848,40 +2848,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8433009371745922</v>
+        <v>0.8346881854906748</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8284384309831182</v>
+        <v>0.8229057994773812</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8341419132091197</v>
+        <v>0.8287303755617589</v>
       </c>
       <c r="F17" t="n">
-        <v>0.842169540229885</v>
+        <v>0.8434511382841235</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8375092992114269</v>
+        <v>0.8383420744184199</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8293845558926767</v>
+        <v>0.8386325141889283</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8224134680268328</v>
+        <v>0.8297574765659872</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8356991514886252</v>
+        <v>0.8486832272143006</v>
       </c>
       <c r="K17" t="n">
-        <v>0.849077779104953</v>
+        <v>0.826946173163009</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8312979189485215</v>
+        <v>0.8179577046453606</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8353432994269751</v>
+        <v>0.8330094669009943</v>
       </c>
       <c r="N17" t="n">
-        <v>0.007969026739912418</v>
+        <v>0.009497707095583717</v>
       </c>
     </row>
   </sheetData>
@@ -2980,40 +2980,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6475956634924078</v>
+        <v>0.6355461737057552</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6762029405088081</v>
+        <v>0.6419506712265952</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6460898792723915</v>
+        <v>0.6761096119820358</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6620558447952756</v>
+        <v>0.6811339749836294</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6503312060341535</v>
+        <v>0.64984346823724</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6707384497342223</v>
+        <v>0.6344707574750805</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6120103245976042</v>
+        <v>0.6394241369800855</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6239666610158234</v>
+        <v>0.6470095029856757</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6405001855282662</v>
+        <v>0.6561488090791707</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6675187194834532</v>
+        <v>0.6127681716565087</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6497009874462407</v>
+        <v>0.6474405278311777</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02054915098572397</v>
+        <v>0.02012522675659975</v>
       </c>
     </row>
     <row r="3">
@@ -3026,40 +3026,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D3" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E3" t="n">
+        <v>369</v>
+      </c>
+      <c r="F3" t="n">
+        <v>401</v>
+      </c>
+      <c r="G3" t="n">
+        <v>397</v>
+      </c>
+      <c r="H3" t="n">
+        <v>375</v>
+      </c>
+      <c r="I3" t="n">
+        <v>382</v>
+      </c>
+      <c r="J3" t="n">
+        <v>413</v>
+      </c>
+      <c r="K3" t="n">
         <v>399</v>
       </c>
-      <c r="F3" t="n">
-        <v>397</v>
-      </c>
-      <c r="G3" t="n">
-        <v>383</v>
-      </c>
-      <c r="H3" t="n">
-        <v>382</v>
-      </c>
-      <c r="I3" t="n">
-        <v>374</v>
-      </c>
-      <c r="J3" t="n">
-        <v>384</v>
-      </c>
-      <c r="K3" t="n">
-        <v>407</v>
-      </c>
       <c r="L3" t="n">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="M3" t="n">
-        <v>391.1</v>
+        <v>387.8</v>
       </c>
       <c r="N3" t="n">
-        <v>10.49285471165974</v>
+        <v>14.28130090557424</v>
       </c>
     </row>
     <row r="4">
@@ -3072,40 +3072,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D4" t="n">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E4" t="n">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F4" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G4" t="n">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H4" t="n">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="I4" t="n">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L4" t="n">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="M4" t="n">
-        <v>343</v>
+        <v>341.3</v>
       </c>
       <c r="N4" t="n">
-        <v>7.453559924999299</v>
+        <v>12.0558883722621</v>
       </c>
     </row>
     <row r="5">
@@ -3118,40 +3118,40 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>85</v>
+      </c>
+      <c r="D5" t="n">
+        <v>97</v>
+      </c>
+      <c r="E5" t="n">
+        <v>94</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>86</v>
+      </c>
+      <c r="H5" t="n">
+        <v>81</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J5" t="n">
         <v>87</v>
       </c>
-      <c r="D5" t="n">
-        <v>81</v>
-      </c>
-      <c r="E5" t="n">
-        <v>87</v>
-      </c>
-      <c r="F5" t="n">
-        <v>87</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78</v>
-      </c>
-      <c r="H5" t="n">
-        <v>87</v>
-      </c>
-      <c r="I5" t="n">
-        <v>73</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91</v>
-      </c>
       <c r="K5" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L5" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="M5" t="n">
-        <v>82.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>6.307843442008441</v>
+        <v>11.53208085684838</v>
       </c>
     </row>
     <row r="6">
@@ -3164,40 +3164,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G6" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H6" t="n">
         <v>86</v>
       </c>
       <c r="I6" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J6" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="K6" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L6" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>82.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="N6" t="n">
-        <v>10.17840851999958</v>
+        <v>8.563488385776752</v>
       </c>
     </row>
     <row r="7">
@@ -3210,40 +3210,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8186874304783093</v>
+        <v>0.7942157953281423</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8142380422691879</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8231368186874305</v>
+        <v>0.8086763070077865</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8286985539488321</v>
+        <v>0.8353726362625139</v>
       </c>
       <c r="G7" t="n">
         <v>0.8164627363737486</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8075639599555061</v>
+        <v>0.8142380422691879</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8097886540600667</v>
+        <v>0.8131256952169077</v>
       </c>
       <c r="J7" t="n">
+        <v>0.8220244716351501</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8220244716351501</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.7908787541713015</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.8286985539488321</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8275862068965517</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.8165739710789767</v>
+        <v>0.8110122358175751</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01181219695715209</v>
+        <v>0.01450749618639653</v>
       </c>
     </row>
     <row r="8">
@@ -3256,40 +3256,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.81875</v>
+        <v>0.8144104803493449</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8276595744680851</v>
+        <v>0.8</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.796976241900648</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8202479338842975</v>
+        <v>0.851380042462845</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8308026030368764</v>
+        <v>0.8219461697722568</v>
       </c>
       <c r="H8" t="n">
-        <v>0.814498933901919</v>
+        <v>0.8223684210526315</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8366890380313199</v>
+        <v>0.8268398268398268</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8084210526315789</v>
+        <v>0.826</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8391752577319588</v>
+        <v>0.822680412371134</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8448637316561844</v>
+        <v>0.7712550607287449</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8262095779663208</v>
+        <v>0.8153856655477432</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01164822142942296</v>
+        <v>0.02162446235385886</v>
       </c>
     </row>
     <row r="9">
@@ -3302,40 +3302,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.837953091684435</v>
+        <v>0.7885835095137421</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8189473684210526</v>
+        <v>0.8134171907756813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8471337579617835</v>
+        <v>0.825503355704698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8556034482758621</v>
+        <v>0.837160751565762</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8148936170212766</v>
+        <v>0.8340336134453782</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8162393162393162</v>
+        <v>0.8134490238611713</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7923728813559322</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7983367983367984</v>
+        <v>0.8497942386831275</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8426501035196687</v>
+        <v>0.8435517970401691</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8326446280991735</v>
+        <v>0.8355263157894737</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8256775010915298</v>
+        <v>0.8253785753826012</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02095129640023223</v>
+        <v>0.01838313263564682</v>
       </c>
     </row>
     <row r="10">
@@ -3348,40 +3348,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7977</v>
+        <v>0.8005</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.7701</v>
       </c>
       <c r="E10" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.7967</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8182</v>
-      </c>
       <c r="H10" t="n">
+        <v>0.8151</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8135</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7893</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.7981</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7823</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.8125</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.8217</v>
+        <v>0.7449</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8065200000000001</v>
+        <v>0.79535</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01409631945658945</v>
+        <v>0.02455421439273602</v>
       </c>
     </row>
     <row r="11">
@@ -3394,40 +3394,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8282402528977871</v>
+        <v>0.8012889366272824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8232804232804234</v>
+        <v>0.8066528066528067</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8338557993730407</v>
+        <v>0.810989010989011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8375527426160337</v>
+        <v>0.8442105263157894</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8227712137486574</v>
+        <v>0.8279457768508863</v>
       </c>
       <c r="H11" t="n">
-        <v>0.815368196371398</v>
+        <v>0.8178844056706652</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8139281828073992</v>
+        <v>0.8197424892703863</v>
       </c>
       <c r="J11" t="n">
-        <v>0.803347280334728</v>
+        <v>0.8377281947261663</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8409090909090908</v>
+        <v>0.8329853862212944</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8021052631578947</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8257962859757914</v>
+        <v>0.8201532796482184</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01235282676485869</v>
+        <v>0.01515172228876546</v>
       </c>
     </row>
     <row r="12">
@@ -3440,40 +3440,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8185636601053832</v>
+        <v>0.7943381680149787</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8142910456748811</v>
+        <v>0.7929737893440252</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8229456359165812</v>
+        <v>0.8086346366657824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8284902200978391</v>
+        <v>0.8354560125837712</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8165282222980558</v>
+        <v>0.8163669303149406</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8075548958017129</v>
+        <v>0.8142587367266311</v>
       </c>
       <c r="I12" t="n">
-        <v>0.809906388097249</v>
+        <v>0.8131868203351845</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7909676035263853</v>
+        <v>0.8217537177887534</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8286691309682048</v>
+        <v>0.8218678871410624</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8276792347264915</v>
+        <v>0.7903756794761475</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8165596037212784</v>
+        <v>0.8109212378391277</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01175146306440391</v>
+        <v>0.01456598732065815</v>
       </c>
     </row>
     <row r="13">
@@ -3486,40 +3486,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8181248378740997</v>
+        <v>0.7939547335962249</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8137504109368119</v>
+        <v>0.7920823841876473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.822397578640147</v>
+        <v>0.8086476586476586</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8281881360138992</v>
+        <v>0.8348411122144985</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8162298975317681</v>
+        <v>0.8156415415839653</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8072195221113668</v>
+        <v>0.8141635422223927</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8096944668303208</v>
+        <v>0.8128735541040153</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7900346852980054</v>
+        <v>0.8203419298753984</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8276834611171959</v>
+        <v>0.821254597872552</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8267622461170849</v>
+        <v>0.7902035749751737</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8160085242470698</v>
+        <v>0.8104004629279528</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01174966050754889</v>
+        <v>0.01444813262459562</v>
       </c>
     </row>
     <row r="14">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.817813755144543</v>
+        <v>0.7945264965409087</v>
       </c>
       <c r="D14" t="n">
-        <v>0.813954816285998</v>
+        <v>0.791779685435234</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8219313649622002</v>
+        <v>0.8087693769673933</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8278017241379311</v>
+        <v>0.8352470424495477</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8165377176015474</v>
+        <v>0.8153619603869917</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8071915838737185</v>
+        <v>0.8142587585059282</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8107063470011511</v>
+        <v>0.8131428854833109</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7903167245272509</v>
+        <v>0.8195702428282465</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8275750517598344</v>
+        <v>0.8208369313839343</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8271656875435627</v>
+        <v>0.7902236545087323</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8160994772837737</v>
+        <v>0.8103717034490228</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01157593503450898</v>
+        <v>0.01439850673608361</v>
       </c>
     </row>
     <row r="15">
@@ -3578,40 +3578,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6364960376575759</v>
+        <v>0.5883526355615258</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6275514010988373</v>
+        <v>0.5842913037143385</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6452566131124114</v>
+        <v>0.6178078979823237</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6572008534416347</v>
+        <v>0.6698152246885049</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6326237895213721</v>
+        <v>0.6313827780734147</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6144410480982564</v>
+        <v>0.6283774906801813</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6206433100757063</v>
+        <v>0.62587616610203</v>
       </c>
       <c r="J15" t="n">
-        <v>0.580140248923834</v>
+        <v>0.641088577208048</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6553752023421568</v>
+        <v>0.642804161391367</v>
       </c>
       <c r="L15" t="n">
-        <v>0.653625608768411</v>
+        <v>0.5832518171042931</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6323354113040194</v>
+        <v>0.6213048052506027</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02354872328902205</v>
+        <v>0.02847117362313593</v>
       </c>
     </row>
     <row r="16">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8186</v>
+        <v>0.7732</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7995</v>
+        <v>0.785</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8257</v>
+        <v>0.8211000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8386</v>
+        <v>0.8178</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8014</v>
+        <v>0.8101</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7832</v>
+        <v>0.7986</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7712</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8164</v>
+        <v>0.8213</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8081</v>
+        <v>0.8148</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8062699999999999</v>
+        <v>0.8064800000000002</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01986549493188853</v>
+        <v>0.0162818781335433</v>
       </c>
     </row>
     <row r="17">
@@ -3670,40 +3670,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.817813755144543</v>
+        <v>0.7945264965409086</v>
       </c>
       <c r="D17" t="n">
-        <v>0.813954816285998</v>
+        <v>0.791779685435234</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8219313649622001</v>
+        <v>0.8087693769673933</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8278017241379311</v>
+        <v>0.8352470424495477</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8165377176015474</v>
+        <v>0.8153619603869917</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8071915838737184</v>
+        <v>0.8142587585059281</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8107063470011511</v>
+        <v>0.8131428854833109</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7903167245272509</v>
+        <v>0.8195702428282466</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8275750517598344</v>
+        <v>0.8208369313839343</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8271656875435628</v>
+        <v>0.7902236545087323</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8160994772837737</v>
+        <v>0.8103717034490228</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01157593503450899</v>
+        <v>0.01439850673608363</v>
       </c>
     </row>
   </sheetData>
@@ -3802,40 +3802,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6982596579011835</v>
+        <v>0.6909187535971334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7192484301586859</v>
+        <v>0.7292221896877404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6926087500805542</v>
+        <v>0.7198589330884262</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7381469403568455</v>
+        <v>0.7211964719319632</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7012717010158449</v>
+        <v>0.7109274511164606</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7243691786238535</v>
+        <v>0.6913064028091911</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6571295404063371</v>
+        <v>0.7006368675800351</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6820704917183988</v>
+        <v>0.6990053751829504</v>
       </c>
       <c r="K2" t="n">
-        <v>0.706966744172032</v>
+        <v>0.6978546240890136</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7075089928717482</v>
+        <v>0.6860436953792596</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7027580427305483</v>
+        <v>0.7046970764462173</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02277186532322829</v>
+        <v>0.01473925806989644</v>
       </c>
     </row>
     <row r="3">
@@ -3848,40 +3848,40 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>403</v>
+      </c>
+      <c r="D3" t="n">
+        <v>408</v>
+      </c>
+      <c r="E3" t="n">
+        <v>381</v>
+      </c>
+      <c r="F3" t="n">
+        <v>406</v>
+      </c>
+      <c r="G3" t="n">
+        <v>404</v>
+      </c>
+      <c r="H3" t="n">
         <v>395</v>
       </c>
-      <c r="D3" t="n">
-        <v>406</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
+        <v>400</v>
+      </c>
+      <c r="J3" t="n">
+        <v>415</v>
+      </c>
+      <c r="K3" t="n">
+        <v>408</v>
+      </c>
+      <c r="L3" t="n">
         <v>398</v>
       </c>
-      <c r="F3" t="n">
-        <v>402</v>
-      </c>
-      <c r="G3" t="n">
-        <v>410</v>
-      </c>
-      <c r="H3" t="n">
-        <v>392</v>
-      </c>
-      <c r="I3" t="n">
-        <v>398</v>
-      </c>
-      <c r="J3" t="n">
-        <v>402</v>
-      </c>
-      <c r="K3" t="n">
-        <v>416</v>
-      </c>
-      <c r="L3" t="n">
-        <v>408</v>
-      </c>
       <c r="M3" t="n">
-        <v>402.7</v>
+        <v>401.8</v>
       </c>
       <c r="N3" t="n">
-        <v>7.36432843736164</v>
+        <v>9.259229629582221</v>
       </c>
     </row>
     <row r="4">
@@ -3894,40 +3894,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D4" t="n">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E4" t="n">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="F4" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G4" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H4" t="n">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="I4" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K4" t="n">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="M4" t="n">
-        <v>348.2</v>
+        <v>350.6</v>
       </c>
       <c r="N4" t="n">
-        <v>6.494442068244028</v>
+        <v>10.52193476082755</v>
       </c>
     </row>
     <row r="5">
@@ -3940,40 +3940,40 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66</v>
+      </c>
+      <c r="G5" t="n">
         <v>79</v>
       </c>
-      <c r="D5" t="n">
+      <c r="H5" t="n">
+        <v>75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J5" t="n">
+        <v>70</v>
+      </c>
+      <c r="K5" t="n">
         <v>84</v>
       </c>
-      <c r="E5" t="n">
-        <v>73</v>
-      </c>
-      <c r="F5" t="n">
-        <v>82</v>
-      </c>
-      <c r="G5" t="n">
-        <v>83</v>
-      </c>
-      <c r="H5" t="n">
-        <v>81</v>
-      </c>
-      <c r="I5" t="n">
-        <v>76</v>
-      </c>
-      <c r="J5" t="n">
-        <v>84</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64</v>
-      </c>
       <c r="L5" t="n">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M5" t="n">
-        <v>77.09999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>7.519604008486381</v>
+        <v>9.697651491183031</v>
       </c>
     </row>
     <row r="6">
@@ -3986,40 +3986,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
         <v>69</v>
       </c>
       <c r="E6" t="n">
+        <v>66</v>
+      </c>
+      <c r="F6" t="n">
         <v>73</v>
       </c>
-      <c r="F6" t="n">
-        <v>62</v>
-      </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H6" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I6" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J6" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K6" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L6" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M6" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N6" t="n">
-        <v>6.306962642808167</v>
+        <v>4.422166387140534</v>
       </c>
     </row>
     <row r="7">
@@ -4032,40 +4032,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8298109010011123</v>
+        <v>0.8353726362625139</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8298109010011123</v>
+        <v>0.8409343715239155</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8375973303670745</v>
+        <v>0.8398220244716351</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8398220244716351</v>
+        <v>0.8453837597330367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8409343715239155</v>
+        <v>0.8320355951056729</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8253615127919911</v>
+        <v>0.8431590656284761</v>
       </c>
       <c r="I7" t="n">
         <v>0.8331479421579533</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8186874304783093</v>
+        <v>0.8431590656284761</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8542825361512792</v>
+        <v>0.8342602892102335</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8431590656284761</v>
+        <v>0.8220244716351501</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8352614015572859</v>
+        <v>0.8369299221357063</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01010611492660665</v>
+        <v>0.007019449501638414</v>
       </c>
     </row>
     <row r="8">
@@ -4078,40 +4078,40 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.8378378378378378</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8464730290456431</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8300653594771242</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8601694915254238</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8364389233954451</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8404255319148937</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.8285714285714286</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8450106157112527</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8305785123966942</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8316430020283976</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.828752642706131</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8396624472573839</v>
-      </c>
       <c r="J8" t="n">
-        <v>0.8271604938271605</v>
+        <v>0.8556701030927835</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8625792811839323</v>
+        <v>0.796</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8393958423682382</v>
+        <v>0.8365681902305411</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01440494396252464</v>
+        <v>0.01760156495357073</v>
       </c>
     </row>
     <row r="9">
@@ -4124,40 +4124,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8422174840085288</v>
+        <v>0.8520084566596194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8547368421052631</v>
+        <v>0.8553459119496856</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8450106157112527</v>
+        <v>0.8523489932885906</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8663793103448276</v>
+        <v>0.8475991649269311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.8487394957983193</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8376068376068376</v>
+        <v>0.8568329718004338</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8432203389830508</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8357588357588358</v>
+        <v>0.8539094650205762</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8612836438923396</v>
+        <v>0.8625792811839323</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8429752066115702</v>
+        <v>0.8728070175438597</v>
       </c>
       <c r="M9" t="n">
-        <v>0.850152954055442</v>
+        <v>0.8553234587959183</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01271077859730804</v>
+        <v>0.007480305290179185</v>
       </c>
     </row>
     <row r="10">
@@ -4170,40 +4170,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8163</v>
+        <v>0.8169</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8018999999999999</v>
+        <v>0.8246</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8294</v>
+        <v>0.8274</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8115</v>
+        <v>0.8429</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8065</v>
+        <v>0.8132</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8121</v>
+        <v>0.8288</v>
       </c>
       <c r="I10" t="n">
-        <v>0.822</v>
+        <v>0.8135</v>
       </c>
       <c r="J10" t="n">
-        <v>0.799</v>
+        <v>0.8305</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8462</v>
+        <v>0.8028</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8434</v>
+        <v>0.7698</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8188299999999999</v>
+        <v>0.8170400000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01637030170087826</v>
+        <v>0.02003991572393012</v>
       </c>
     </row>
     <row r="11">
@@ -4216,40 +4216,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8377518557794275</v>
+        <v>0.8448637316561844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8414507772020726</v>
+        <v>0.8508863399374348</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8450106157112527</v>
+        <v>0.8410596026490067</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8481012658227848</v>
+        <v>0.8538380651945321</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8515057113187955</v>
+        <v>0.8425443169968718</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8331562167906482</v>
+        <v>0.8485499462943072</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8414376321353065</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8314374353671148</v>
+        <v>0.8547888774459321</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8639667705088265</v>
+        <v>0.8455958549222797</v>
       </c>
       <c r="L11" t="n">
-        <v>0.852664576802508</v>
+        <v>0.8326359832635983</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8446482857438739</v>
+        <v>0.8456867981518041</v>
       </c>
       <c r="N11" t="n">
-        <v>0.009838872655176798</v>
+        <v>0.00666372311067026</v>
       </c>
     </row>
     <row r="12">
@@ -4262,40 +4262,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8297644626690754</v>
+        <v>0.8352826732730005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8296012993888502</v>
+        <v>0.84087506301132</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8375973303670745</v>
+        <v>0.8398053754378588</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8396272187927845</v>
+        <v>0.845453630026107</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8406431849187871</v>
+        <v>0.831947918045794</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8253160361058846</v>
+        <v>0.8431031049295227</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8331284827918092</v>
+        <v>0.8330423133725766</v>
       </c>
       <c r="J12" t="n">
-        <v>0.81861071564745</v>
+        <v>0.8431731282787995</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8543173298076536</v>
+        <v>0.834001734890271</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8432833945498962</v>
+        <v>0.8214699508374641</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8351889455039266</v>
+        <v>0.8368154892102714</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01013172608600322</v>
+        <v>0.007177690070849328</v>
       </c>
     </row>
     <row r="13">
@@ -4308,40 +4308,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8294022436791875</v>
+        <v>0.8347541407096088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8288886539071587</v>
+        <v>0.8402226693727699</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8372249340238507</v>
+        <v>0.8398123125352657</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8393447505584513</v>
+        <v>0.8448647232702294</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8401241131444277</v>
+        <v>0.8312840774495682</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8249795086286964</v>
+        <v>0.84296009425442</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8326906470535688</v>
+        <v>0.8326092353525323</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8176441087786235</v>
+        <v>0.842146554805191</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8535402714819582</v>
+        <v>0.8333621531514159</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8425035131337153</v>
+        <v>0.8213061151472386</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8346342744389638</v>
+        <v>0.836332207604824</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01013489184172209</v>
+        <v>0.007104187146113623</v>
       </c>
     </row>
     <row r="14">
@@ -4354,40 +4354,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8292482768879854</v>
+        <v>0.8344549325551618</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8283118172790467</v>
+        <v>0.8399952308563594</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8372249340238507</v>
+        <v>0.8398913108035873</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8389367816091955</v>
+        <v>0.845228153892037</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8394336160293607</v>
+        <v>0.8309891332419492</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8248359014020268</v>
+        <v>0.8428000475440525</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8326171952526495</v>
+        <v>0.8322918216535238</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8174009489798963</v>
+        <v>0.8422089697984236</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8537187450230929</v>
+        <v>0.8326980912961915</v>
       </c>
       <c r="L14" t="n">
-        <v>0.843174350293737</v>
+        <v>0.8212793552730585</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8344902566780842</v>
+        <v>0.8361837046914345</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01028075834759266</v>
+        <v>0.007223142283535821</v>
       </c>
     </row>
     <row r="15">
@@ -4400,40 +4400,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6588560219098146</v>
+        <v>0.6696413940528034</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6582434553621646</v>
+        <v>0.6804977432103293</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6744498680477012</v>
+        <v>0.6799239758455243</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6795252304487469</v>
+        <v>0.6898325242034384</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6813589187350808</v>
+        <v>0.6626697722260664</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6500102566601423</v>
+        <v>0.6860895618572403</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6653895772508466</v>
+        <v>0.665425735243704</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6353393219125314</v>
+        <v>0.6842952180718161</v>
       </c>
       <c r="K15" t="n">
-        <v>0.707099730423187</v>
+        <v>0.6674764060908838</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6852612514756461</v>
+        <v>0.6465850363677402</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6695533632225862</v>
+        <v>0.6732437367169546</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02036192077066868</v>
+        <v>0.0132892591992517</v>
       </c>
     </row>
     <row r="16">
@@ -4446,40 +4446,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8259</v>
+        <v>0.8325</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8313</v>
+        <v>0.8345</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8294</v>
+        <v>0.85</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8506</v>
+        <v>0.829</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8522</v>
+        <v>0.8269</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8216</v>
+        <v>0.8462</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8259</v>
+        <v>0.8329</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8087</v>
+        <v>0.8285</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8401</v>
+        <v>0.8403</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8216</v>
+        <v>0.8546</v>
       </c>
       <c r="M16" t="n">
-        <v>0.83073</v>
+        <v>0.8375400000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01351690710842454</v>
+        <v>0.00973506833851492</v>
       </c>
     </row>
     <row r="17">
@@ -4492,40 +4492,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8292482768879853</v>
+        <v>0.8344549325551619</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8283118172790467</v>
+        <v>0.8399952308563593</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8372249340238507</v>
+        <v>0.8398913108035874</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8389367816091954</v>
+        <v>0.845228153892037</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8394336160293607</v>
+        <v>0.8309891332419493</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8248359014020268</v>
+        <v>0.8428000475440525</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8326171952526495</v>
+        <v>0.8322918216535238</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8174009489798963</v>
+        <v>0.8422089697984236</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8537187450230929</v>
+        <v>0.8326980912961915</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8431743502937369</v>
+        <v>0.8212793552730585</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8344902566780842</v>
+        <v>0.8361837046914345</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01028075834759266</v>
+        <v>0.007223142283535809</v>
       </c>
     </row>
   </sheetData>
